--- a/staking.xlsx
+++ b/staking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85ac3adda01de027/PycharmProjects/BinanceClient/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\Projects\binanceClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="14_{C0F5A9BC-2573-4188-B2BD-7258988DF22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B1F040F-B5E1-40A7-8B7C-FB9391E577E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE6BBD7-3170-4583-8B6F-F5E85DBDE7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{F71F1FA2-7F03-40A4-8253-2943B193F51F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F71F1FA2-7F03-40A4-8253-2943B193F51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,36 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>BNB</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>asset</t>
   </si>
   <si>
     <t>size</t>
-  </si>
-  <si>
-    <t>MATIC</t>
-  </si>
-  <si>
-    <t>ADA</t>
-  </si>
-  <si>
-    <t>NEAR</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>AVAX</t>
-  </si>
-  <si>
-    <t>DOT</t>
-  </si>
-  <si>
-    <t>MBOX</t>
   </si>
 </sst>
 </file>
@@ -441,7 +417,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B10" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,83 +428,38 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>4.290248E-2</v>
-      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>23.3</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>46.1</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.8</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.43</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.56999999999999995</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2.4700000000000002</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2.1873644900000002</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.10980358</v>
-      </c>
+      <c r="B10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
